--- a/acc.xlsx
+++ b/acc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>tigi.solomon.752</t>
   </si>
@@ -22,10 +22,7 @@
     <t>sheldon1@et</t>
   </si>
   <si>
-    <t>hfdhjfhdjkhfj</t>
-  </si>
-  <si>
-    <t>bfdjbfjdbfj</t>
+    <t>beln.yehateshealij</t>
   </si>
 </sst>
 </file>
@@ -407,12 +404,12 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/acc.xlsx
+++ b/acc.xlsx
@@ -404,7 +404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
